--- a/MyMojioWebsite/bin/com/mojio/xls/MyProfile.xlsx
+++ b/MyMojioWebsite/bin/com/mojio/xls/MyProfile.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="211">
   <si>
     <t>TCID</t>
   </si>
@@ -164,262 +164,265 @@
     <t>Write the password</t>
   </si>
   <si>
+    <t>signInPasswordId</t>
+  </si>
+  <si>
+    <t>col|Sign_In_Password</t>
+  </si>
+  <si>
+    <t>TS006</t>
+  </si>
+  <si>
+    <t>Click on Submit button</t>
+  </si>
+  <si>
+    <t>clickByXpath</t>
+  </si>
+  <si>
+    <t>SubmitXpath</t>
+  </si>
+  <si>
+    <t>TS007</t>
+  </si>
+  <si>
+    <t>Verify the dashboard page</t>
+  </si>
+  <si>
+    <t>col|Dashboard_Page</t>
+  </si>
+  <si>
+    <t>Click on Settings icon</t>
+  </si>
+  <si>
+    <t>clickByID</t>
+  </si>
+  <si>
+    <t>settingsId</t>
+  </si>
+  <si>
+    <t>Click on My profile link</t>
+  </si>
+  <si>
+    <t>myProfileXpath</t>
+  </si>
+  <si>
+    <t>Verify the my profile page text</t>
+  </si>
+  <si>
+    <t>col|My_Profile_Page</t>
+  </si>
+  <si>
+    <t>Click on Edit profile button</t>
+  </si>
+  <si>
+    <t>editProfileButtonXpath</t>
+  </si>
+  <si>
+    <t>Verify the edit profile text</t>
+  </si>
+  <si>
+    <t>col|Edit_Profile_Page</t>
+  </si>
+  <si>
+    <t>Clear the user name field</t>
+  </si>
+  <si>
+    <t>clearFieldById</t>
+  </si>
+  <si>
+    <t>editUserName</t>
+  </si>
+  <si>
+    <t>Clear the first name field</t>
+  </si>
+  <si>
+    <t>editFirstName</t>
+  </si>
+  <si>
+    <t>TS008</t>
+  </si>
+  <si>
+    <t>Clear the last name field</t>
+  </si>
+  <si>
+    <t>editLastName</t>
+  </si>
+  <si>
+    <t>TS009</t>
+  </si>
+  <si>
+    <t>Write the username using current date</t>
+  </si>
+  <si>
+    <t>writeCurrentDateById</t>
+  </si>
+  <si>
+    <t>TS010</t>
+  </si>
+  <si>
+    <t>Write the first name</t>
+  </si>
+  <si>
+    <t>col|New_Firstname</t>
+  </si>
+  <si>
+    <t>TS011</t>
+  </si>
+  <si>
+    <t>Write the last name</t>
+  </si>
+  <si>
+    <t>col|New_Lastname</t>
+  </si>
+  <si>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>editSubmitXpath</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>Verify the profile update text present</t>
+  </si>
+  <si>
+    <t>col|Profile_Update_Page</t>
+  </si>
+  <si>
+    <t>Verify user name on my profile area</t>
+  </si>
+  <si>
+    <t>verifyCurrentDateByXpath</t>
+  </si>
+  <si>
+    <t>profileUserNameXpath</t>
+  </si>
+  <si>
+    <t>Verify the name on my profile area</t>
+  </si>
+  <si>
+    <t>verifyTextByXpath</t>
+  </si>
+  <si>
+    <t>profileNameXpath</t>
+  </si>
+  <si>
+    <t>col|Profile_Name_Verify</t>
+  </si>
+  <si>
+    <t>Verify the user name in left panel</t>
+  </si>
+  <si>
+    <t>leftPanelUserNameXpath</t>
+  </si>
+  <si>
+    <t>Verify the user name on header panel</t>
+  </si>
+  <si>
+    <t>headerUserNameXpath</t>
+  </si>
+  <si>
+    <t>Write the user name</t>
+  </si>
+  <si>
+    <t>col|Username</t>
+  </si>
+  <si>
+    <t>TS014</t>
+  </si>
+  <si>
+    <t>col|Firstname</t>
+  </si>
+  <si>
+    <t>TS015</t>
+  </si>
+  <si>
+    <t>col|Lastname</t>
+  </si>
+  <si>
+    <t>TS016</t>
+  </si>
+  <si>
+    <t>TS017</t>
+  </si>
+  <si>
+    <t>col|New_Username</t>
+  </si>
+  <si>
+    <t>Click Cancel</t>
+  </si>
+  <si>
+    <t>editCancelXpath</t>
+  </si>
+  <si>
+    <t>Verify the user name error text</t>
+  </si>
+  <si>
+    <t>col|Username_Error</t>
+  </si>
+  <si>
+    <t>Click on Change password button</t>
+  </si>
+  <si>
+    <t>changePasswordButtonXpath</t>
+  </si>
+  <si>
+    <t>Verify the change password page text</t>
+  </si>
+  <si>
+    <t>col|Change_password_Page</t>
+  </si>
+  <si>
+    <t>Write current password</t>
+  </si>
+  <si>
+    <t>currentPasswordId</t>
+  </si>
+  <si>
+    <t>col|Current_Password</t>
+  </si>
+  <si>
+    <t>Write new password</t>
+  </si>
+  <si>
+    <t>newPasswordId</t>
+  </si>
+  <si>
+    <t>col|New_Password</t>
+  </si>
+  <si>
+    <t>Write new password to confirm</t>
+  </si>
+  <si>
+    <t>confirmPasswordId</t>
+  </si>
+  <si>
+    <t>Click submit</t>
+  </si>
+  <si>
+    <t>changePasswordSubmitXpath</t>
+  </si>
+  <si>
+    <t>Verify the password updated text</t>
+  </si>
+  <si>
+    <t>col|Password_Updated</t>
+  </si>
+  <si>
+    <t>Click on log out</t>
+  </si>
+  <si>
+    <t>logOutXpath</t>
+  </si>
+  <si>
     <t>writeInInputByXpath</t>
   </si>
   <si>
     <t>signInPasswordXpath</t>
-  </si>
-  <si>
-    <t>col|Sign_In_Password</t>
-  </si>
-  <si>
-    <t>TS006</t>
-  </si>
-  <si>
-    <t>Click on Submit button</t>
-  </si>
-  <si>
-    <t>clickByXpath</t>
-  </si>
-  <si>
-    <t>SubmitXpath</t>
-  </si>
-  <si>
-    <t>TS007</t>
-  </si>
-  <si>
-    <t>Verify the dashboard page</t>
-  </si>
-  <si>
-    <t>col|Dashboard_Page</t>
-  </si>
-  <si>
-    <t>Click on Settings icon</t>
-  </si>
-  <si>
-    <t>clickByID</t>
-  </si>
-  <si>
-    <t>settingsId</t>
-  </si>
-  <si>
-    <t>Click on My profile link</t>
-  </si>
-  <si>
-    <t>myProfileXpath</t>
-  </si>
-  <si>
-    <t>Verify the my profile page text</t>
-  </si>
-  <si>
-    <t>col|My_Profile_Page</t>
-  </si>
-  <si>
-    <t>Click on Edit profile button</t>
-  </si>
-  <si>
-    <t>editProfileButtonXpath</t>
-  </si>
-  <si>
-    <t>Verify the edit profile text</t>
-  </si>
-  <si>
-    <t>col|Edit_Profile_Page</t>
-  </si>
-  <si>
-    <t>Clear the user name field</t>
-  </si>
-  <si>
-    <t>clearFieldById</t>
-  </si>
-  <si>
-    <t>editUserName</t>
-  </si>
-  <si>
-    <t>Clear the first name field</t>
-  </si>
-  <si>
-    <t>editFirstName</t>
-  </si>
-  <si>
-    <t>TS008</t>
-  </si>
-  <si>
-    <t>Clear the last name field</t>
-  </si>
-  <si>
-    <t>editLastName</t>
-  </si>
-  <si>
-    <t>TS009</t>
-  </si>
-  <si>
-    <t>Write the username using current date</t>
-  </si>
-  <si>
-    <t>writeCurrentDateById</t>
-  </si>
-  <si>
-    <t>TS010</t>
-  </si>
-  <si>
-    <t>Write the first name</t>
-  </si>
-  <si>
-    <t>col|New_Firstname</t>
-  </si>
-  <si>
-    <t>TS011</t>
-  </si>
-  <si>
-    <t>Write the last name</t>
-  </si>
-  <si>
-    <t>col|New_Lastname</t>
-  </si>
-  <si>
-    <t>TS012</t>
-  </si>
-  <si>
-    <t>Click Submit</t>
-  </si>
-  <si>
-    <t>editSubmitXpath</t>
-  </si>
-  <si>
-    <t>TS013</t>
-  </si>
-  <si>
-    <t>Verify the profile update text present</t>
-  </si>
-  <si>
-    <t>col|Profile_Update_Page</t>
-  </si>
-  <si>
-    <t>Verify user name on my profile area</t>
-  </si>
-  <si>
-    <t>verifyCurrentDateByXpath</t>
-  </si>
-  <si>
-    <t>profileUserNameXpath</t>
-  </si>
-  <si>
-    <t>Verify the name on my profile area</t>
-  </si>
-  <si>
-    <t>verifyTextByXpath</t>
-  </si>
-  <si>
-    <t>profileNameXpath</t>
-  </si>
-  <si>
-    <t>col|Profile_Name_Verify</t>
-  </si>
-  <si>
-    <t>Verify the user name in left panel</t>
-  </si>
-  <si>
-    <t>leftPanelUserNameXpath</t>
-  </si>
-  <si>
-    <t>Verify the user name on header panel</t>
-  </si>
-  <si>
-    <t>headerUserNameXpath</t>
-  </si>
-  <si>
-    <t>Write the user name</t>
-  </si>
-  <si>
-    <t>col|Username</t>
-  </si>
-  <si>
-    <t>TS014</t>
-  </si>
-  <si>
-    <t>col|Firstname</t>
-  </si>
-  <si>
-    <t>TS015</t>
-  </si>
-  <si>
-    <t>col|Lastname</t>
-  </si>
-  <si>
-    <t>TS016</t>
-  </si>
-  <si>
-    <t>TS017</t>
-  </si>
-  <si>
-    <t>col|New_Username</t>
-  </si>
-  <si>
-    <t>Click Cancel</t>
-  </si>
-  <si>
-    <t>editCancelXpath</t>
-  </si>
-  <si>
-    <t>Verify the user name error text</t>
-  </si>
-  <si>
-    <t>col|Username_Error</t>
-  </si>
-  <si>
-    <t>Click on Change password button</t>
-  </si>
-  <si>
-    <t>changePasswordButtonXpath</t>
-  </si>
-  <si>
-    <t>Verify the change password page text</t>
-  </si>
-  <si>
-    <t>col|Change_password_Page</t>
-  </si>
-  <si>
-    <t>Write current password</t>
-  </si>
-  <si>
-    <t>currentPasswordId</t>
-  </si>
-  <si>
-    <t>col|Current_Password</t>
-  </si>
-  <si>
-    <t>Write new password</t>
-  </si>
-  <si>
-    <t>newPasswordId</t>
-  </si>
-  <si>
-    <t>col|New_Password</t>
-  </si>
-  <si>
-    <t>Write new password to confirm </t>
-  </si>
-  <si>
-    <t>confirmPasswordId</t>
-  </si>
-  <si>
-    <t>Click submit</t>
-  </si>
-  <si>
-    <t>changePasswordSubmitXpath</t>
-  </si>
-  <si>
-    <t>Verify the password updated text</t>
-  </si>
-  <si>
-    <t>col|Password_Updated</t>
-  </si>
-  <si>
-    <t>Click on log out</t>
-  </si>
-  <si>
-    <t>logOutXpath</t>
   </si>
   <si>
     <t>TS018</t>
@@ -784,7 +787,7 @@
       <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -810,6 +813,10 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -926,7 +933,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C9" activeCellId="1" pane="topLeft" sqref="A68:E77 C9"/>
+      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1084,7 +1091,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B13" activeCellId="1" pane="topLeft" sqref="A68:E77 B13"/>
+      <selection activeCell="B13" activeCellId="0" pane="topLeft" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1095,11 +1102,11 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>172</v>
+      <c r="A1" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
@@ -1107,10 +1114,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -1135,7 +1142,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F1" activeCellId="1" pane="topLeft" sqref="A68:E77 F1"/>
+      <selection activeCell="F1" activeCellId="0" pane="topLeft" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1154,70 +1161,70 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
+      <c r="C1" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H1" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>193</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>168</v>
       </c>
+      <c r="C2" s="14" t="s">
+        <v>169</v>
+      </c>
       <c r="D2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="13" t="s">
-        <v>171</v>
+      <c r="H2" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>4</v>
@@ -1245,7 +1252,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1259,16 +1266,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1276,16 +1283,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>171</v>
+        <v>197</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1310,7 +1317,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1323,16 +1330,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1340,16 +1347,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1374,7 +1381,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1389,16 +1396,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1406,16 +1413,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D2" s="13" t="s">
         <v>204</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1440,7 +1447,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1454,16 +1461,16 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -1471,16 +1478,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>207</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -1505,7 +1512,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1518,21 +1525,21 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>209</v>
+      <c r="A2" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>210</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>4</v>
@@ -1556,8 +1563,8 @@
   </sheetPr>
   <dimension ref="1:155"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A145" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A68" activeCellId="0" pane="topLeft" sqref="A68:E77"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1701,13 +1708,13 @@
         <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="4" t="s">
@@ -1719,16 +1726,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1741,17 +1748,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="4" t="s">
@@ -1759,333 +1766,333 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
+      <c r="A11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="7" t="s">
+      <c r="D11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
+      <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="A13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="A14" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="A15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="A16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="C16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="8" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="A18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="8" t="s">
+      <c r="B18" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="8" t="s">
+      <c r="B19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="8" t="s">
+      <c r="B20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="8" t="s">
+      <c r="B21" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="8" t="s">
+      <c r="B22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23" s="10">
+      <c r="A23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="8" t="s">
+      <c r="B23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23" s="9">
-      <c r="A23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP23" s="0"/>
@@ -2110,25 +2117,25 @@
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24" s="9">
-      <c r="A24" s="8" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24" s="10">
+      <c r="A24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9" t="s">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP24" s="0"/>
@@ -2153,25 +2160,25 @@
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25" s="9">
-      <c r="A25" s="8" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="25" s="10">
+      <c r="A25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="D25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP25" s="0"/>
@@ -2196,14 +2203,14 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="26" s="10">
       <c r="A26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -2213,8 +2220,8 @@
       <c r="F26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="11"/>
+      <c r="H26" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP26" s="0"/>
@@ -2239,25 +2246,25 @@
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="27" s="10">
       <c r="A27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="9" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP27" s="0"/>
@@ -2282,25 +2289,25 @@
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="28" s="10">
       <c r="A28" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP28" s="0"/>
@@ -2325,7 +2332,7 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="29" s="10">
       <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
@@ -2333,17 +2340,17 @@
         <v>37</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>90</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP29" s="0"/>
@@ -2368,7 +2375,7 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="30" s="10">
       <c r="A30" s="6" t="s">
         <v>8</v>
       </c>
@@ -2376,19 +2383,19 @@
         <v>42</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="G30" s="6"/>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="12" t="s">
         <v>28</v>
       </c>
       <c r="ALP30" s="0"/>
@@ -2413,25 +2420,25 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="31" s="10">
       <c r="A31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP31" s="0"/>
@@ -2456,25 +2463,25 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="32" s="10">
       <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP32" s="0"/>
@@ -2499,25 +2506,25 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="33" s="10">
       <c r="A33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP33" s="0"/>
@@ -2542,25 +2549,25 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="34" s="10">
       <c r="A34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>63</v>
+        <v>72</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="6"/>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP34" s="0"/>
@@ -2585,25 +2592,25 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="35" s="10">
       <c r="A35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP35" s="0"/>
@@ -2628,25 +2635,25 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="36" s="10">
       <c r="A36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP36" s="0"/>
@@ -2671,25 +2678,25 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="37" s="10">
       <c r="A37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP37" s="0"/>
@@ -2714,27 +2721,27 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="38" s="10">
       <c r="A38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>99</v>
+        <v>84</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G38" s="6"/>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP38" s="0"/>
@@ -2759,27 +2766,27 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="39" s="10">
       <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>77</v>
+        <v>100</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G39" s="6"/>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP39" s="0"/>
@@ -2804,27 +2811,27 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="40" s="10">
       <c r="A40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>80</v>
+        <v>102</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP40" s="0"/>
@@ -2849,25 +2856,25 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41" s="10">
       <c r="A41" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP41" s="0"/>
@@ -2892,25 +2899,25 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42" s="9">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="42" s="10">
       <c r="A42" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>86</v>
+        <v>105</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10" t="s">
-        <v>87</v>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP42" s="0"/>
@@ -2935,25 +2942,25 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43" s="9">
-      <c r="A43" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="43" s="10">
+      <c r="A43" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="9" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP43" s="0"/>
@@ -2978,25 +2985,25 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44" s="9">
-      <c r="A44" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="44" s="10">
+      <c r="A44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="9" t="s">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP44" s="0"/>
@@ -3021,25 +3028,25 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45" s="9">
-      <c r="A45" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="45" s="10">
+      <c r="A45" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="9" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP45" s="0"/>
@@ -3064,25 +3071,25 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46" s="9">
-      <c r="A46" s="7" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="46" s="10">
+      <c r="A46" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="9" t="s">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="10" t="s">
         <v>28</v>
       </c>
       <c r="ALP46" s="0"/>
@@ -3108,473 +3115,473 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="47">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="G47" s="8"/>
+      <c r="H47" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
+      <c r="A48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
+      <c r="A49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
+      <c r="A50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
+      <c r="A51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
+      <c r="A52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
+      <c r="A53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="8"/>
+      <c r="H53" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
+      <c r="A54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
+      <c r="A55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7" t="s">
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" s="13"/>
+      <c r="H55" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
+      <c r="A56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
+      <c r="A57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
+      <c r="A58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
+      <c r="A59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
+      <c r="A60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
+      <c r="A61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="48">
-      <c r="A48" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="E61" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
+      <c r="A62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="49">
-      <c r="A49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="D62" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E49" s="7" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
+      <c r="A63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="50">
-      <c r="A50" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B50" s="7" t="s">
+      <c r="C63" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="7" t="s">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
+      <c r="A64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="51">
-      <c r="A51" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="7" t="s">
+      <c r="C64" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D64" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="52">
-      <c r="A52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="7" t="s">
+      <c r="E64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
+      <c r="A65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F52" s="7" t="s">
+      <c r="E65" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
+      <c r="A66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
-      <c r="A53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="C66" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
+      <c r="A67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="54">
-      <c r="A54" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="7" t="s">
+      <c r="C67" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="55">
-      <c r="A55" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="7" t="s">
+      <c r="D67" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="56">
-      <c r="A56" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="57">
-      <c r="A57" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="58">
-      <c r="A58" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="59">
-      <c r="A59" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="60">
-      <c r="A60" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="61">
-      <c r="A61" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="62">
-      <c r="A62" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="63">
-      <c r="A63" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="64">
-      <c r="A64" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="65">
-      <c r="A65" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="66">
-      <c r="A66" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="E67" s="9"/>
+      <c r="F67" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G67" s="8"/>
+      <c r="G67" s="9"/>
       <c r="H67" s="4" t="s">
         <v>28</v>
       </c>
@@ -3596,7 +3603,7 @@
       <c r="F68" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G68" s="10"/>
+      <c r="G68" s="11"/>
       <c r="H68" s="4" t="s">
         <v>28</v>
       </c>
@@ -3609,16 +3616,16 @@
         <v>29</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="E69" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E69" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F69" s="6"/>
-      <c r="G69" s="10"/>
+      <c r="G69" s="11"/>
       <c r="H69" s="4" t="s">
         <v>28</v>
       </c>
@@ -3631,16 +3638,16 @@
         <v>33</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F70" s="6"/>
-      <c r="G70" s="10"/>
+      <c r="G70" s="11"/>
       <c r="H70" s="4" t="s">
         <v>28</v>
       </c>
@@ -3653,16 +3660,16 @@
         <v>37</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="F71" s="6"/>
-      <c r="G71" s="10"/>
+      <c r="G71" s="11"/>
       <c r="H71" s="4" t="s">
         <v>28</v>
       </c>
@@ -3675,16 +3682,16 @@
         <v>42</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G72" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="G72" s="11"/>
       <c r="H72" s="4" t="s">
         <v>28</v>
       </c>
@@ -3694,19 +3701,19 @@
         <v>11</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>69</v>
-      </c>
       <c r="F73" s="6"/>
-      <c r="G73" s="10"/>
+      <c r="G73" s="11"/>
       <c r="H73" s="4" t="s">
         <v>28</v>
       </c>
@@ -3716,19 +3723,19 @@
         <v>11</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="F74" s="6"/>
-      <c r="G74" s="10"/>
+      <c r="G74" s="11"/>
       <c r="H74" s="4" t="s">
         <v>28</v>
       </c>
@@ -3738,21 +3745,21 @@
         <v>11</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G75" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="G75" s="11"/>
       <c r="H75" s="4" t="s">
         <v>28</v>
       </c>
@@ -3762,19 +3769,19 @@
         <v>11</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="F76" s="6"/>
-      <c r="G76" s="10"/>
+      <c r="G76" s="11"/>
       <c r="H76" s="4" t="s">
         <v>28</v>
       </c>
@@ -3784,871 +3791,871 @@
         <v>11</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>86</v>
+        <v>75</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" s="10"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="11"/>
       <c r="H77" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="78">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7" t="s">
+      <c r="E78" s="8"/>
+      <c r="F78" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G78" s="12"/>
+      <c r="G78" s="13"/>
       <c r="H78" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="79">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="E79" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="F79" s="8"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80">
+      <c r="A80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F79" s="7"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="80">
-      <c r="A80" s="7" t="s">
+      <c r="D80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81">
+      <c r="A81" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B81" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F81" s="8"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82">
+      <c r="A82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83">
+      <c r="A83" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F83" s="8"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84">
+      <c r="A84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="8"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85">
+      <c r="A85" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86">
+      <c r="A86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87">
+      <c r="A87" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G87" s="9"/>
+      <c r="H87" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88">
+      <c r="A88" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89">
+      <c r="A89" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90">
+      <c r="A90" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
+      <c r="A91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
+      <c r="A92" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G92" s="9"/>
+      <c r="H92" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
+      <c r="A93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G93" s="9"/>
+      <c r="H93" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
+      <c r="A94" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" s="9"/>
+      <c r="H94" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
+      <c r="A95" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
+      <c r="A96" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" s="9"/>
+      <c r="H96" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
+      <c r="A97" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
+      <c r="A98" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="A99" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="9"/>
+      <c r="H99" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
+      <c r="A100" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G100" s="9"/>
+      <c r="H100" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="101">
+      <c r="A101" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="102">
+      <c r="A102" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G102" s="9"/>
+      <c r="H102" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
+      <c r="A103" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="104">
+      <c r="A104" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
+      <c r="A105" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="106">
+      <c r="A106" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="107">
+      <c r="A107" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="108">
+      <c r="A108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F80" s="7"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="81">
-      <c r="A81" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F81" s="7"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="82">
-      <c r="A82" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D82" s="7" t="s">
+      <c r="D108" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G82" s="12"/>
-      <c r="H82" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="83">
-      <c r="A83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F83" s="7"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="84">
-      <c r="A84" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="7"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="85">
-      <c r="A85" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F85" s="7"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="86">
-      <c r="A86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D86" s="7" t="s">
+      <c r="E108" s="9"/>
+      <c r="F108" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G108" s="9"/>
+      <c r="H108" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
+      <c r="A109" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
+      <c r="A110" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" s="12"/>
-      <c r="H86" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="87">
-      <c r="A87" s="8" t="s">
+      <c r="E110" s="9"/>
+      <c r="F110" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="111">
+      <c r="A111" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="88">
-      <c r="A88" s="8" t="s">
+      <c r="B111" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="112">
+      <c r="A112" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="89">
-      <c r="A89" s="8" t="s">
+      <c r="B112" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G112" s="9"/>
+      <c r="H112" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="113">
+      <c r="A113" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="90">
-      <c r="A90" s="8" t="s">
+      <c r="B113" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G113" s="9"/>
+      <c r="H113" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="114">
+      <c r="A114" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="91">
-      <c r="A91" s="8" t="s">
+      <c r="B114" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
+      <c r="A115" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="B115" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="92">
-      <c r="A92" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="93">
-      <c r="A93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G93" s="8"/>
-      <c r="H93" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="94">
-      <c r="A94" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="95">
-      <c r="A95" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="96">
-      <c r="A96" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="8" t="s">
+      <c r="E115" s="9"/>
+      <c r="F115" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="97">
-      <c r="A97" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="98">
-      <c r="A98" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F98" s="8"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="99">
-      <c r="A99" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
-      <c r="A100" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="101">
-      <c r="A101" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="102">
-      <c r="A102" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
-      <c r="A103" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="104">
-      <c r="A104" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="105">
-      <c r="A105" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="106">
-      <c r="A106" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="107">
-      <c r="A107" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="108">
-      <c r="A108" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
-      <c r="A109" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F109" s="8"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="110">
-      <c r="A110" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="111">
-      <c r="A111" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="112">
-      <c r="A112" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="113">
-      <c r="A113" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="114">
-      <c r="A114" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
-      <c r="A115" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G115" s="8"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="4" t="s">
         <v>28</v>
       </c>
@@ -4670,7 +4677,7 @@
       <c r="F116" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G116" s="10"/>
+      <c r="G116" s="11"/>
       <c r="H116" s="4" t="s">
         <v>28</v>
       </c>
@@ -4683,17 +4690,17 @@
         <v>29</v>
       </c>
       <c r="C117" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="6" t="s">
+      <c r="E117" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F117" s="6"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="11" t="s">
+      <c r="G117" s="11"/>
+      <c r="H117" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4705,17 +4712,17 @@
         <v>33</v>
       </c>
       <c r="C118" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F118" s="6"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11" t="s">
+      <c r="G118" s="11"/>
+      <c r="H118" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4726,18 +4733,18 @@
       <c r="B119" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D119" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="11" t="s">
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4748,17 +4755,17 @@
       <c r="B120" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>114</v>
+      <c r="C120" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G120" s="11"/>
       <c r="H120" s="4" t="s">
         <v>28</v>
       </c>
@@ -4768,22 +4775,22 @@
         <v>14</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>116</v>
+        <v>46</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E121" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F121" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G121" s="10"/>
-      <c r="H121" s="11" t="s">
+      <c r="G121" s="11"/>
+      <c r="H121" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4792,22 +4799,22 @@
         <v>14</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>119</v>
+        <v>50</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E122" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F122" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="F122" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G122" s="10"/>
-      <c r="H122" s="11" t="s">
+      <c r="G122" s="11"/>
+      <c r="H122" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4816,21 +4823,21 @@
         <v>14</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>122</v>
+        <v>69</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>121</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G123" s="10"/>
+        <v>122</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G123" s="11"/>
       <c r="H123" s="4" t="s">
         <v>28</v>
       </c>
@@ -4840,20 +4847,20 @@
         <v>14</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>108</v>
+        <v>72</v>
+      </c>
+      <c r="C124" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4862,471 +4869,471 @@
         <v>14</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>146</v>
+        <v>75</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>147</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G125" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="G125" s="11"/>
       <c r="H125" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7" t="s">
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G126" s="12"/>
+      <c r="G126" s="13"/>
       <c r="H126" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="127">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="E127" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E127" s="7" t="s">
+      <c r="F127" s="8"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
+      <c r="A128" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F127" s="7"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
-      <c r="A128" s="7" t="s">
+      <c r="D128" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="8"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
+      <c r="A129" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B129" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
+      <c r="A130" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G130" s="13"/>
+      <c r="H130" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
+      <c r="A131" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="G131" s="13"/>
+      <c r="H131" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
+      <c r="A132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G132" s="13"/>
+      <c r="H132" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
+      <c r="A133" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G133" s="13"/>
+      <c r="H133" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="134">
+      <c r="A134" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
+      <c r="A135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G135" s="13"/>
+      <c r="H135" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="136">
+      <c r="A136" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G136" s="9"/>
+      <c r="H136" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="137">
+      <c r="A137" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="138">
+      <c r="A138" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C138" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D128" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F128" s="7"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
-      <c r="A129" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" s="7" t="s">
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="139">
+      <c r="A139" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C139" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E129" s="7" t="s">
+      <c r="F139" s="9"/>
+      <c r="G139" s="9"/>
+      <c r="H139" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="140">
+      <c r="A140" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
-      <c r="A130" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C130" s="12" t="s">
+      <c r="D140" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="G140" s="9"/>
+      <c r="H140" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="141">
+      <c r="A141" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G141" s="9"/>
+      <c r="H141" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="142">
+      <c r="A142" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="143">
+      <c r="A143" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G143" s="9"/>
+      <c r="H143" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="144">
+      <c r="A144" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E144" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="145">
+      <c r="A145" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E130" s="12"/>
-      <c r="F130" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
-      <c r="A131" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F131" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="G131" s="12"/>
-      <c r="H131" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
-      <c r="A132" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G132" s="12"/>
-      <c r="H132" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="133">
-      <c r="A133" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F133" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G133" s="12"/>
-      <c r="H133" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="134">
-      <c r="A134" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E134" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="135">
-      <c r="A135" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G135" s="12"/>
-      <c r="H135" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="136">
-      <c r="A136" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="137">
-      <c r="A137" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="138">
-      <c r="A138" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F138" s="8"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="139">
-      <c r="A139" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="140">
-      <c r="A140" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="141">
-      <c r="A141" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="142">
-      <c r="A142" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="143">
-      <c r="A143" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="144">
-      <c r="A144" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="145">
-      <c r="A145" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G145" s="8"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G145" s="9"/>
       <c r="H145" s="4" t="s">
         <v>28</v>
       </c>
@@ -5348,7 +5355,7 @@
       <c r="F146" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G146" s="10"/>
+      <c r="G146" s="11"/>
       <c r="H146" s="4" t="s">
         <v>28</v>
       </c>
@@ -5361,16 +5368,16 @@
         <v>29</v>
       </c>
       <c r="C147" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D147" s="6" t="s">
+      <c r="E147" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E147" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="F147" s="6"/>
-      <c r="G147" s="10"/>
+      <c r="G147" s="11"/>
       <c r="H147" s="4" t="s">
         <v>28</v>
       </c>
@@ -5383,16 +5390,16 @@
         <v>33</v>
       </c>
       <c r="C148" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="F148" s="6"/>
-      <c r="G148" s="10"/>
+      <c r="G148" s="11"/>
       <c r="H148" s="4" t="s">
         <v>28</v>
       </c>
@@ -5404,17 +5411,17 @@
       <c r="B149" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E149" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
       <c r="H149" s="4" t="s">
         <v>28</v>
       </c>
@@ -5426,17 +5433,17 @@
       <c r="B150" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>114</v>
+      <c r="C150" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="D150" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E150" s="10"/>
-      <c r="F150" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G150" s="10"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G150" s="11"/>
       <c r="H150" s="4" t="s">
         <v>28</v>
       </c>
@@ -5446,21 +5453,21 @@
         <v>17</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>116</v>
+        <v>46</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E151" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F151" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="F151" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G151" s="10"/>
+      <c r="G151" s="11"/>
       <c r="H151" s="4" t="s">
         <v>28</v>
       </c>
@@ -5470,19 +5477,19 @@
         <v>17</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C152" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D152" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F152" s="10"/>
-      <c r="G152" s="10"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
       <c r="H152" s="4" t="s">
         <v>28</v>
       </c>
@@ -5492,19 +5499,19 @@
         <v>17</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>156</v>
+        <v>69</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G153" s="10"/>
+        <v>158</v>
+      </c>
+      <c r="G153" s="11"/>
       <c r="H153" s="4" t="s">
         <v>28</v>
       </c>
@@ -5514,19 +5521,19 @@
         <v>17</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C154" s="10" t="s">
-        <v>158</v>
+        <v>72</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>159</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="G154" s="10"/>
+        <v>160</v>
+      </c>
+      <c r="G154" s="11"/>
       <c r="H154" s="4" t="s">
         <v>28</v>
       </c>
@@ -5536,17 +5543,17 @@
         <v>17</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>160</v>
+        <v>75</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
-      <c r="G155" s="10"/>
+      <c r="G155" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5567,7 +5574,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C14" activeCellId="1" pane="topLeft" sqref="A68:E77 C14"/>
+      <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5580,34 +5587,34 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>165</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>169</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -5635,7 +5642,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5648,15 +5655,15 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.05" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>171</v>
+      <c r="A2" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>4</v>
@@ -5681,7 +5688,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D1" activeCellId="1" pane="topLeft" sqref="A68:E77 D1"/>
+      <selection activeCell="D1" activeCellId="0" pane="topLeft" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5698,26 +5705,26 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>174</v>
       </c>
+      <c r="C1" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="D1" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>2</v>
@@ -5725,25 +5732,25 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>4</v>
@@ -5768,7 +5775,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E5" activeCellId="1" pane="topLeft" sqref="A68:E77 E5"/>
+      <selection activeCell="E5" activeCellId="0" pane="topLeft" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5784,39 +5791,39 @@
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
-      <c r="A2" s="13" t="s">
-        <v>185</v>
+      <c r="A2" s="14" t="s">
+        <v>186</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>182</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>4</v>
@@ -5841,7 +5848,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5856,20 +5863,20 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>174</v>
       </c>
+      <c r="D1" s="14" t="s">
+        <v>175</v>
+      </c>
       <c r="E1" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>2</v>
@@ -5877,19 +5884,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>171</v>
+        <v>182</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>172</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>4</v>
@@ -5914,7 +5921,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B1" activeCellId="1" pane="topLeft" sqref="A68:E77 B1"/>
+      <selection activeCell="B1" activeCellId="0" pane="topLeft" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5928,17 +5935,17 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>172</v>
+      <c r="A1" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>2</v>
@@ -5946,16 +5953,16 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>189</v>
+      <c r="D2" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>4</v>
@@ -5980,7 +5987,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="A68:E77 A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5993,14 +6000,14 @@
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="1">
-      <c r="A1" s="13" t="s">
-        <v>172</v>
+      <c r="A1" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
@@ -6008,13 +6015,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="14.9" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
